--- a/codigo organizado/output/resultados_m5_2.xlsx
+++ b/codigo organizado/output/resultados_m5_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,10 +521,10 @@
         <v>0.6759990864017994</v>
       </c>
       <c r="J2" t="n">
-        <v>1.013370998212573</v>
+        <v>1.014599035280096</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6757624729698412</v>
+        <v>0.6752808002360404</v>
       </c>
     </row>
     <row r="3">
@@ -558,10 +558,10 @@
         <v>0.4393969099069597</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4612796626787685</v>
+        <v>0.460703809477281</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4393505643397974</v>
+        <v>0.4406203948592079</v>
       </c>
     </row>
     <row r="4">
@@ -595,10 +595,84 @@
         <v>0.3795919908433791</v>
       </c>
       <c r="J4" t="n">
-        <v>0.572351950674975</v>
+        <v>0.5721468274630938</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3801595515582808</v>
+        <v>0.3801278717307893</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HOBBIES_1_004_CA_1_validation</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.029342542785527</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.405436241386296</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.883420554371564</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.383432283965898</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.126720337743507</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.395665827482116</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.959994380703091</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.655581719657391</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.965077682550004</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.661599977692012</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>HOBBIES_1_005_CA_1_validation</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.661352277424511</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9640578664601989</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.673629390696314</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9547215753932921</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.699410679898557</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9613878993345167</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.631728075076476</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9620384597827402</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.632163530306413</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9645479901119266</v>
       </c>
     </row>
   </sheetData>

--- a/codigo organizado/output/resultados_m5_2.xlsx
+++ b/codigo organizado/output/resultados_m5_2.xlsx
@@ -521,10 +521,10 @@
         <v>0.6759990864017994</v>
       </c>
       <c r="J2" t="n">
-        <v>1.014599035280096</v>
+        <v>1.014822181983665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6752808002360404</v>
+        <v>0.6760465707701172</v>
       </c>
     </row>
     <row r="3">
@@ -558,10 +558,10 @@
         <v>0.4393969099069597</v>
       </c>
       <c r="J3" t="n">
-        <v>0.460703809477281</v>
+        <v>0.4614211114448626</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4406203948592079</v>
+        <v>0.4388676411479844</v>
       </c>
     </row>
     <row r="4">
@@ -595,10 +595,10 @@
         <v>0.3795919908433791</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5721468274630938</v>
+        <v>0.5736720896059114</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3801278717307893</v>
+        <v>0.3792936760926208</v>
       </c>
     </row>
     <row r="5">
@@ -632,10 +632,10 @@
         <v>1.655581719657391</v>
       </c>
       <c r="J5" t="n">
-        <v>5.965077682550004</v>
+        <v>5.947207755633674</v>
       </c>
       <c r="K5" t="n">
-        <v>1.661599977692012</v>
+        <v>1.655381188858721</v>
       </c>
     </row>
     <row r="6">
@@ -669,10 +669,10 @@
         <v>0.9620384597827402</v>
       </c>
       <c r="J6" t="n">
-        <v>1.632163530306413</v>
+        <v>1.631178862839253</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9645479901119266</v>
+        <v>0.9614619607510089</v>
       </c>
     </row>
   </sheetData>
